--- a/src/excels/immune/updates/top_genes_cluster_0.3.xlsx
+++ b/src/excels/immune/updates/top_genes_cluster_0.3.xlsx
@@ -7,15 +7,30 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Imm.M0_like.0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Imm.M0_like.1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Imm.M0_like.2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Imm.Interferon.0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Imm.DAM.0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Imm.MHCII.0" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Imm.Proliferative.0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Imm.PVM.0" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Imm.DAM.1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.Vascular.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MeV.1.4.11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MeV.1.4.13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MeV.1.4.15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MeV.1.4.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MeV.1.4.20" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.1.4.21" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MeV.1.4.4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MeV.Vascular.2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.1.4.6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MeV.1.4.7" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MeV.1.4.8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MeV.2.1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="MeV.2.8" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MeV.3.17" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="MeV.Proliferative_Fibr.0" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MeV.Pericytes.0" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="MeV.4.12" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MeV.Vascular.1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MeV.4.26" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MeV.4.30" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MeV.SMC.0" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="MeV.4.34" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="MeV.4.4" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,96 +481,1456 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dnajc6</t>
+          <t>Vwf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.367162227630615</v>
+        <v>24.65826797485352</v>
       </c>
       <c r="C2" t="n">
-        <v>1.139620661735535</v>
+        <v>5.746859073638916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00158484133309952</v>
+        <v>3.135608740014277e-130</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3293838862559242</v>
+        <v>0.910394265232975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hecw1</t>
+          <t>Gm5127</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.535037040710449</v>
+        <v>21.08493232727051</v>
       </c>
       <c r="C3" t="n">
-        <v>1.077910304069519</v>
+        <v>5.599452495574951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008359439508457508</v>
+        <v>3.265568592968107e-95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3720379146919431</v>
+        <v>0.7885304659498208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nhs</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.847220420837402</v>
+        <v>20.1533317565918</v>
       </c>
       <c r="C4" t="n">
-        <v>1.037598609924316</v>
+        <v>4.868412494659424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000218072708025657</v>
+        <v>5.842932299830736e-87</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4194312796208531</v>
+        <v>0.7634408602150538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Chrm2</t>
+          <t>Clec14a</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.092315673828125</v>
+        <v>9.138520240783691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9961662292480469</v>
+        <v>4.605831146240234</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004354409894052893</v>
+        <v>6.550954783116631e-18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3341232227488152</v>
+        <v>0.3476702508960574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nell1</t>
+          <t>Ptprb</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.688350915908813</v>
+        <v>24.25704383850098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9860619902610779</v>
+        <v>4.514730453491211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01650894436050344</v>
+        <v>2.911614205735104e-126</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3341232227488152</v>
+        <v>0.942652329749104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Trpm3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.15441703796387</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.619999170303345</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.087596898979295e-62</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9912663755458515</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Il31ra</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.17730331420898</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.378145694732666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.089743436694398e-48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6986899563318777</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Dcdc2a</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.466706275939941</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.765967607498169</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.87469875329101e-15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4104803493449782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Cyp26b1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.691417694091797</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.715155363082886</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.168967173364277e-15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4192139737991266</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Scn7a</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.842025756835938</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.693007230758667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.219231375733037e-12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3799126637554585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Trpm3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.11813068389893</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.704210758209229</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5280882014755e-30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9560975609756097</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Pla1a</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.18224573135376</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.454823970794678</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.375897168101769e-07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3121951219512195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Igfbp3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.602677345275879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.349856376647949</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.707135191084065e-06</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3024390243902439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Slc7a11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.09408855438232</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.08977746963501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.719550892816901e-35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8634146341463415</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ranbp3l</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.80861949920654</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.088848829269409</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.11105861117125e-34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8926829268292683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Ftl1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.997123718261719</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.652719974517822</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.825484376056191e-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Rpl18a</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.441896438598633</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.616515874862671</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.610368399850763e-14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4019607843137255</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Rpl19</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.766739845275879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.589808225631714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.547750343855811e-12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rpl41</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.4991512298584</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.578825712203979</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.821744913130043e-22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Rpl26</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.174030303955078</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.573222637176514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.8334759257083e-13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.392156862745098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Ccbe1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.89297580718994</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.80575966835022</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.602256871614526e-24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4892857142857143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Grem2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.521661758422852</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.518855571746826</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.512041543689882e-11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Slc7a11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18.02221870422363</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.500449180603027</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.725683135576888e-68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Aox3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.763838768005371</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.3311767578125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.100402622117091e-12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3714285714285714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Tmem132c</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.770005226135254</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.210522651672363</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.272361038301972e-09</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3357142857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tmem132e</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.132872581481934</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.422604560852051</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67030237081911e-10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3383838383838384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Igf1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.9192943572998</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.102248907089233</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.713595687736554e-68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ltbp1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.54691123962402</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.066290855407715</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.806086076480191e-58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8484848484848485</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Grem2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.19687938690186</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.006099939346313</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.915358240834985e-22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5101010101010101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Svep1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.81777667999268</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.938517808914185</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.201494465720203e-40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7121212121212122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Abca8a</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11.08273315429688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.917680263519287</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.360401288313205e-25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Lama1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.74507808685303</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.654157638549805</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.13939738183262e-38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Col15a1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.16091728210449</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.625631332397461</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.740545402201908e-21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Cemip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.08167171478271</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.389645576477051</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.379548823707039e-29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Tbx18</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.196982383728027</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.360204219818115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.799305311154781e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3444444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Depdc1a</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.514955520629883</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.831934928894043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.005304621144910816</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.01577091217041</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.268778800964355</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.026872284378051e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cenpf</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.130839347839355</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.908038139343262</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01842557275752444</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Tpx2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.880934238433838</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.541200637817383</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001379262204429101</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Knl1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.25744104385376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.47708797454834</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0002775530524128262</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Abcc9</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.80918884277344</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.07367992401123</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.953627260351002e-68</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Slc38a11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.05405426025391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.216042995452881</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78664648275715e-62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7513227513227513</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Gm12002</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.796178817749023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.162126064300537</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.716938109262737e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3439153439153439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Notch3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19.90745735168457</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.961271286010742</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.221552451115988e-84</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8783068783068783</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Tbx3os1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15.91768932342529</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.923933029174805</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.538330537068609e-54</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Myoc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.722052574157715</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.031754970550537</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.249839470669304e-06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3303571428571428</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Gm973</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.421634674072266</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.556369304656982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.201440649089809e-08</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3839285714285715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Prps2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.66301155090332</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.537609577178955</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.751828286941962e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Slc47a1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.1564884185791</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.425482273101807</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.136497956067923e-54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9910714285714286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Tbx15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.17175579071045</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.298410892486572</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.539044504916326e-21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sema3g</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.777571678161621</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.989787578582764</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11550284740059e-06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bmx</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.23022747039795</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.583659648895264</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.167404543543299e-21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6477272727272727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Nos1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.670352935791016</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.840508937835693</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.012479335852129e-06</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Prdm16</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.99201393127441</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.714864253997803</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.695835401561911e-25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7045454545454546</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lama3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.807014942169189</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.879610538482666</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.309295247150442e-12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5113636363636364</v>
       </c>
     </row>
   </sheetData>
@@ -602,96 +1977,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Sall1</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.329596042633057</v>
+        <v>16.04056549072266</v>
       </c>
       <c r="C2" t="n">
-        <v>1.006195783615112</v>
+        <v>3.82102632522583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004277065254066564</v>
+        <v>6.954304532635131e-54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3241758241758242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Golm1</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.193488121032715</v>
+        <v>16.72438430786133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9717554450035095</v>
+        <v>3.147144317626953</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007554541629151932</v>
+        <v>1.819900585483357e-58</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3434065934065934</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Plxdc2</t>
+          <t>Ptgds</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.3033332824707</v>
+        <v>13.99912357330322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8964698910713196</v>
+        <v>2.890903949737549</v>
       </c>
       <c r="D4" t="n">
-        <v>1.422553619990038e-20</v>
+        <v>6.596546144391894e-41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.978021978021978</v>
+        <v>0.8352272727272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gna15</t>
+          <t>Nadk2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.820008754730225</v>
+        <v>12.73181629180908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8207014799118042</v>
+        <v>2.58952808380127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02681897561829815</v>
+        <v>1.175165512314697e-33</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>St3gal6</t>
+          <t>Ppp1r1a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.172982692718506</v>
+        <v>5.974902629852295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.818060576915741</v>
+        <v>2.495764017105103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008160555140955443</v>
+        <v>8.442081795243183e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4148351648351649</v>
+        <v>0.3409090909090909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Dapl1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.32056999206543</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.150452136993408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.099360756724459e-17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cubn</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.320733070373535</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.141708850860596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.374078105604812e-14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Prg4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.0223217010498</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.970844745635986</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.546638381591512e-35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Slc7a14</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.87525177001953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.861955165863037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.322103320937876e-34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Dpp4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.26927471160889</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.691474914550781</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.48264666273588e-26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Pi16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.448329448699951</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.736920833587646</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.234852970081388e-10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Angptl1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.30976390838623</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.437739849090576</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002777093313212009</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3518518518518519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Nox4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.005513668060303</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.93771505355835</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.02550089110723e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Col14a1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.980396270751953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.911049365997314</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.32927822666493e-06</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gfpt2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.954192399978638</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.875976085662842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.009969334683140976</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Myh11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.01858234405518</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.97446346282959</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63982613535229e-19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8367346938775511</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Myom1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.755067825317383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.474307537078857</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.27118907246741e-15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Jph2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.826090335845947</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.455090522766113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.526723687872772e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Acta2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.754861831665039</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.235536098480225</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.27118907246741e-15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Pdlim3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.104136943817139</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.157766819000244</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.268520720587068e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Mamdc2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.577197074890137</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.048963069915771</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.929787574174587e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abca8a</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.604628562927246</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.585538387298584</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.985951575848039e-10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ror2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.339718341827393</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.269865036010742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0001216062052437567</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Matn2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.998796463012695</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.729873657226562</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0005480742446392809</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Col15a1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.021059989929199</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.624528169631958</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0005114482516798062</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Col25a1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>27.62878608703613</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.865596771240234</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.497402083336059e-164</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.936231884057971</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Slc26a7</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24.89524078369141</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.575868129730225</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.591822845333684e-133</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8405797101449275</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Slc47a1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28.20289611816406</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.498301982879639</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.631096640815984e-171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9652173913043478</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Slc4a10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>29.49537086486816</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.082905292510986</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.898620940522358e-187</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Slc47a2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18.39566993713379</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.761241436004639</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.826452956078785e-73</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6318840579710145</v>
       </c>
     </row>
   </sheetData>
@@ -738,96 +2793,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Atp8a2</t>
+          <t>Gna14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.739700794219971</v>
+        <v>7.490413665771484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7204151749610901</v>
+        <v>5.175975799560547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01118382178433849</v>
+        <v>4.948271625567119e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6636771300448431</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nav2</t>
+          <t>Itgb4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.054004669189453</v>
+        <v>7.614237308502197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5781387090682983</v>
+        <v>4.930605411529541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00452131010352688</v>
+        <v>2.122162777746862e-11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9282511210762332</v>
+        <v>0.5119047619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Plxdc2</t>
+          <t>Ptch1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.91878080368042</v>
+        <v>11.85699939727783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5448926687240601</v>
+        <v>4.794204235076904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00606720153225925</v>
+        <v>8.274353565285425e-29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9775784753363229</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Zfhx3</t>
+          <t>Ror2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.703026294708252</v>
+        <v>6.829337120056152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5195671319961548</v>
+        <v>4.59368896484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002460024734208967</v>
+        <v>4.818979054225385e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9417040358744395</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Frmd4a</t>
+          <t>Ngf</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.319231986999512</v>
+        <v>6.238821506500244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4082598686218262</v>
+        <v>4.402055263519287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04675053248922589</v>
+        <v>1.960601725965719e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8699551569506726</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -874,96 +2929,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ifi209</t>
+          <t>Slco1a4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.693798542022705</v>
+        <v>8.875215530395508</v>
       </c>
       <c r="C2" t="n">
-        <v>4.561067581176758</v>
+        <v>2.474648714065552</v>
       </c>
       <c r="D2" t="n">
-        <v>2.360742662474059e-05</v>
+        <v>9.117813020227405e-16</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.6782608695652174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Phf11d</t>
+          <t>Slco1c1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.32575511932373</v>
+        <v>4.448846340179443</v>
       </c>
       <c r="C3" t="n">
-        <v>4.095365047454834</v>
+        <v>2.395301342010498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0113470178060604</v>
+        <v>0.0005692245309622164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.3217391304347826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Oasl2</t>
+          <t>Spock2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.542618274688721</v>
+        <v>3.726606607437134</v>
       </c>
       <c r="C4" t="n">
-        <v>4.038127422332764</v>
+        <v>2.269225835800171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004645021091384598</v>
+        <v>0.007953650520694225</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3130434782608696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Usp18</t>
+          <t>Adgrl4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.000162601470947</v>
+        <v>6.806303024291992</v>
       </c>
       <c r="C5" t="n">
-        <v>3.891900539398193</v>
+        <v>2.178121089935303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03891207808350636</v>
+        <v>3.0562483044416e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.5304347826086957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ifi213</t>
+          <t>Tmtc2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.984488248825073</v>
+        <v>8.711513519287109</v>
       </c>
       <c r="C6" t="n">
-        <v>3.859365463256836</v>
+        <v>2.177638053894043</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0395916640731387</v>
+        <v>3.298447781940992e-15</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.7217391304347827</v>
       </c>
     </row>
   </sheetData>
@@ -1010,96 +3065,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ccbe1</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.19510555267334</v>
+        <v>7.779182910919189</v>
       </c>
       <c r="C2" t="n">
-        <v>4.662803173065186</v>
+        <v>1.529390335083008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005816967517130531</v>
+        <v>1.386959739364907e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Epas1</t>
+          <t>Cntnap5b</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.100975036621094</v>
+        <v>3.540348291397095</v>
       </c>
       <c r="C3" t="n">
-        <v>4.418959617614746</v>
+        <v>1.252995848655701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001471377841307881</v>
+        <v>0.021525835136581</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Atp6v0d2</t>
+          <t>Gria3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.81461238861084</v>
+        <v>3.671704769134521</v>
       </c>
       <c r="C4" t="n">
-        <v>4.369754314422607</v>
+        <v>1.034439444541931</v>
       </c>
       <c r="D4" t="n">
-        <v>3.841074219884102e-11</v>
+        <v>0.01494315859543167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gpnmb</t>
+          <t>Kirrel3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.14635848999023</v>
+        <v>6.166383743286133</v>
       </c>
       <c r="C5" t="n">
-        <v>4.120423793792725</v>
+        <v>1.022570729255676</v>
       </c>
       <c r="D5" t="n">
-        <v>7.189083867873304e-20</v>
+        <v>3.744463719150587e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Anpep</t>
+          <t>Lsamp</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.04973840713501</v>
+        <v>10.37631225585938</v>
       </c>
       <c r="C6" t="n">
-        <v>3.70556640625</v>
+        <v>1.009693264961243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009832078584978999</v>
+        <v>6.64264468629132e-21</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.948</v>
       </c>
     </row>
   </sheetData>
@@ -1146,96 +3201,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gm15987</t>
+          <t>Sorbs2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.595037937164307</v>
+        <v>3.936442852020264</v>
       </c>
       <c r="C2" t="n">
-        <v>7.037450790405273</v>
+        <v>1.827330708503723</v>
       </c>
       <c r="D2" t="n">
-        <v>1.367692276295431e-05</v>
+        <v>0.01781934546965527</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gpr141</t>
+          <t>Frmd5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.818791389465332</v>
+        <v>4.669758319854736</v>
       </c>
       <c r="C3" t="n">
-        <v>6.798276424407959</v>
+        <v>1.795558094978333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004502195798308643</v>
+        <v>0.00131308051656787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Ptprg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.809247493743896</v>
+        <v>4.34119987487793</v>
       </c>
       <c r="C4" t="n">
-        <v>6.443010330200195</v>
+        <v>1.494223952293396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004523559205135056</v>
+        <v>0.004292482000243238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Cmss1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.293683528900146</v>
+        <v>4.107530117034912</v>
       </c>
       <c r="C5" t="n">
-        <v>6.411273002624512</v>
+        <v>1.422393918037415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003498088039642558</v>
+        <v>0.01044821695092537</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ciita</t>
+          <t>Gphn</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.531722545623779</v>
+        <v>5.34624195098877</v>
       </c>
       <c r="C6" t="n">
-        <v>6.16926097869873</v>
+        <v>1.333612442016602</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001473260044435253</v>
+        <v>8.140652875858649e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.9375</v>
       </c>
     </row>
   </sheetData>
@@ -1282,96 +3337,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Myo1f</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.077921867370605</v>
+        <v>4.497606754302979</v>
       </c>
       <c r="C2" t="n">
-        <v>10.31312084197998</v>
+        <v>5.132003307342529</v>
       </c>
       <c r="D2" t="n">
-        <v>1.272347885376855e-05</v>
+        <v>0.02872742462848472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Kif11</t>
+          <t>Runx1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.664881706237793</v>
+        <v>4.54682445526123</v>
       </c>
       <c r="C3" t="n">
-        <v>8.953768730163574</v>
+        <v>4.215267181396484</v>
       </c>
       <c r="D3" t="n">
-        <v>7.687695032334256e-05</v>
+        <v>0.02845746576392087</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cenpf</t>
+          <t>Dock2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.84865665435791</v>
+        <v>4.848105907440186</v>
       </c>
       <c r="C4" t="n">
-        <v>8.652871131896973</v>
+        <v>3.842652559280396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002375661584573736</v>
+        <v>0.009371752351063327</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.249812602996826</v>
+        <v>4.832962036132812</v>
       </c>
       <c r="C5" t="n">
-        <v>8.532804489135742</v>
+        <v>2.961454391479492</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004809181410598877</v>
+        <v>0.009371752351063327</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Neil3</t>
+          <t>Ppm1h</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.849236488342285</v>
+        <v>5.318958282470703</v>
       </c>
       <c r="C6" t="n">
-        <v>8.408724784851074</v>
+        <v>2.536372184753418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002375661584573736</v>
+        <v>0.002181290690704287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
   </sheetData>
@@ -1418,96 +3473,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cd163</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.340352535247803</v>
+        <v>23.6920051574707</v>
       </c>
       <c r="C2" t="n">
-        <v>8.251800537109375</v>
+        <v>4.495234489440918</v>
       </c>
       <c r="D2" t="n">
-        <v>1.236828433340406e-10</v>
+        <v>9.11114628472371e-120</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4049586776859504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Mrc1</t>
+          <t>Slc6a20b</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.6474609375</v>
+        <v>12.03287315368652</v>
       </c>
       <c r="C3" t="n">
-        <v>6.228469848632812</v>
+        <v>4.191911220550537</v>
       </c>
       <c r="D3" t="n">
-        <v>6.037698531255219e-33</v>
+        <v>7.127417842484242e-31</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7107438016528925</v>
+        <v>0.4862745098039216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>F13a1</t>
+          <t>Slc22a6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.84789371490479</v>
+        <v>10.52751541137695</v>
       </c>
       <c r="C4" t="n">
-        <v>6.100496292114258</v>
+        <v>4.108908176422119</v>
       </c>
       <c r="D4" t="n">
-        <v>2.737963777877111e-39</v>
+        <v>1.296563042402305e-23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7851239669421488</v>
+        <v>0.4196078431372549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cmah</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.888217926025391</v>
+        <v>23.50762557983398</v>
       </c>
       <c r="C5" t="n">
-        <v>4.660149097442627</v>
+        <v>3.986784696578979</v>
       </c>
       <c r="D5" t="n">
-        <v>1.117721837816548e-06</v>
+        <v>3.56197893586852e-118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3388429752066116</v>
+        <v>0.996078431372549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bank1</t>
+          <t>Ppp1r1a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.861875534057617</v>
+        <v>15.13161945343018</v>
       </c>
       <c r="C6" t="n">
-        <v>4.443381786346436</v>
+        <v>3.91607141494751</v>
       </c>
       <c r="D6" t="n">
-        <v>2.824794971913836e-12</v>
+        <v>6.346228940795005e-49</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4628099173553719</v>
+        <v>0.6196078431372549</v>
       </c>
     </row>
   </sheetData>
@@ -1554,96 +3609,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dkk2</t>
+          <t>Slco1c1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.842402935028076</v>
+        <v>16.92189788818359</v>
       </c>
       <c r="C2" t="n">
-        <v>2.757952213287354</v>
+        <v>4.85829496383667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003623167260248915</v>
+        <v>4.632148586913591e-61</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3208955223880597</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lgals3</t>
+          <t>Slco1a4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.934299468994141</v>
+        <v>22.79654884338379</v>
       </c>
       <c r="C3" t="n">
-        <v>2.479563236236572</v>
+        <v>4.379551887512207</v>
       </c>
       <c r="D3" t="n">
-        <v>4.916078644843975e-12</v>
+        <v>5.184630602902785e-111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.9471544715447154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gpnmb</t>
+          <t>Slc7a5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.914331436157227</v>
+        <v>10.6133279800415</v>
       </c>
       <c r="C4" t="n">
-        <v>2.413962364196777</v>
+        <v>4.05585765838623</v>
       </c>
       <c r="D4" t="n">
-        <v>5.195676146362911e-12</v>
+        <v>5.047062110616776e-24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.582089552238806</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Airn</t>
+          <t>Nostrin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.01850414276123</v>
+        <v>9.849343299865723</v>
       </c>
       <c r="C5" t="n">
-        <v>2.015142679214478</v>
+        <v>3.97758412361145</v>
       </c>
       <c r="D5" t="n">
-        <v>1.114950882716711e-06</v>
+        <v>1.109253184322774e-20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4626865671641791</v>
+        <v>0.4105691056910569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bcar3</t>
+          <t>Tfrc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.588635444641113</v>
+        <v>8.743401527404785</v>
       </c>
       <c r="C6" t="n">
-        <v>1.997446060180664</v>
+        <v>3.970114469528198</v>
       </c>
       <c r="D6" t="n">
-        <v>5.630946080318759e-11</v>
+        <v>2.900427495370085e-16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.3699186991869919</v>
       </c>
     </row>
   </sheetData>
